--- a/biology/Zoologie/Gampsocleis_glabra/Gampsocleis_glabra.xlsx
+++ b/biology/Zoologie/Gampsocleis_glabra/Gampsocleis_glabra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gampsocleis glabra, le dectique des brandes, est une espèce de sauterelles de la famille des Tettigoniidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Eurasiatique.</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dectique des brandes ressemble au dectique verrucivore (Decticus verrucivorus), mais il est plus petit (corps long de 20 à 26 mm) et moins massif.
 </t>
@@ -572,7 +588,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce fréquente des landes à bruyères ou des prairies sèches à poacées (graminées) thermophiles. Il s'active seulement au soleil.
 </t>
@@ -603,9 +621,11 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Europe (France, Allemagne...), le dectique des brandes semble en régression marquée, à la suite de la dégradation de ses milieux de vie par diverses activités humaines. Il a disparu de Belgique où il était autrefois très rare[1]. Des recherches basées sur les particularités de ses stridulations permettant d'identifier les mâles devraient préciser l'état actuel des populations.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Europe (France, Allemagne...), le dectique des brandes semble en régression marquée, à la suite de la dégradation de ses milieux de vie par diverses activités humaines. Il a disparu de Belgique où il était autrefois très rare. Des recherches basées sur les particularités de ses stridulations permettant d'identifier les mâles devraient préciser l'état actuel des populations.
 </t>
         </is>
       </c>
